--- a/4 labs/LR4_otchet — малахов.xlsx
+++ b/4 labs/LR4_otchet — малахов.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Юра\Downloads\ЛР4_Остроух_681063\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Univercity\Тестирование\4 labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="491505" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Тестирование" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>Идентификатор</t>
   </si>
@@ -93,15 +93,6 @@
     <t>Рисунок 1.4</t>
   </si>
   <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>Масштабируемость</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -118,21 +109,6 @@
   </si>
   <si>
     <t>2.1.2</t>
-  </si>
-  <si>
-    <t>Рисунок 1.7</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>Кроссплатформенность</t>
-  </si>
-  <si>
-    <t>2.2.1</t>
-  </si>
-  <si>
-    <t>Рисунок 1.8</t>
   </si>
   <si>
     <t>3. Тестирование производительности</t>
@@ -208,12 +184,6 @@
 1.2 Проверить идентичность стилевого оформления страницы</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 Загрузить главную страницу сайта, используя мобильное устройство с дисплеем 4 дюйма и выше </t>
-  </si>
-  <si>
-    <t>Элементы сайта отображаются корректно, информация представлена в удобочитаемой форме</t>
-  </si>
-  <si>
     <t>Соответствует ожидаемому результату</t>
   </si>
   <si>
@@ -224,45 +194,38 @@
     <t>Рисунок 1.5</t>
   </si>
   <si>
-    <t>1.1. Загрузить главную страницу сайта в браузере IE 11
-1.2 Проверить корректность отображения элементов сайта</t>
-  </si>
-  <si>
     <t>1.1. Загрузить главную страницу сайта в браузере Google Chrome
 1.2 Проверить корректность отображения элементов сайта</t>
   </si>
   <si>
-    <t>Сайт должен корректно работать на разных ОС c Android</t>
-  </si>
-  <si>
-    <t>1.1 Загрузить главную страницу сайта на buk.by на мобильном устростве с ОС Android
-1.2 Проверить работу сайта</t>
-  </si>
-  <si>
-    <t>1.1 Воспользоваться сервисом PageSpeed Insight и проанализировать url buk.by</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сайт должен загружаться не более 5 секунд </t>
   </si>
   <si>
-    <t>Главная страница сайта грузится в среднем за 2 секунды.</t>
-  </si>
-  <si>
-    <t>1.1 Загрузить главную страницу сайта buk.by в браузере Google Chrome
+    <t>Главная страница сайта грузится в среднем за 5 секунд.</t>
+  </si>
+  <si>
+    <t>Низкая</t>
+  </si>
+  <si>
+    <t>1.1. Загрузить главную страницу сайта в браузере Microsoft Edge
+1.2 Проверить корректность отображения элементов сайта</t>
+  </si>
+  <si>
+    <t>1.1 Воспользоваться сервисом PageSpeed Insight и проанализировать url bsmu.by</t>
+  </si>
+  <si>
+    <t>1.1 Загрузить главную страницу сайта bsmu.by в браузере Google Chrome
 1.2 Открыть инструмент разработчиков (клавиша F12)
 1.3 Перейти во вкладку Network и проанализировать результаты скорости загрузки данных сайта</t>
   </si>
   <si>
-    <t>Главная страница сайта грузится в среднем за 5 секунд.</t>
-  </si>
-  <si>
-    <t>Низкая</t>
+    <t>Главная страница сайта грузится в среднем за 3 секунды.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,22 +405,49 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -468,33 +458,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,56 +776,56 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:6" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="D5" s="18"/>
       <c r="E5" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>10</v>
@@ -872,317 +835,239 @@
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="16"/>
+        <v>45</v>
+      </c>
+      <c r="D6" s="18"/>
       <c r="E6" s="11" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>61</v>
+      <c r="E8" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="20"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="18" t="s">
-        <v>61</v>
+        <v>49</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="16"/>
+        <v>48</v>
+      </c>
+      <c r="B11" s="18"/>
       <c r="C11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="A15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="28"/>
+        <v>59</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="F18" s="11" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="E16:E18"/>
+  <mergeCells count="17">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A12:F12"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="D8:D11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A7:F7"/>
@@ -1190,8 +1075,11 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D13:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1203,7 +1091,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,16 +1112,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1241,19 +1129,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
